--- a/empinfo/JaeSuk.xlsx
+++ b/empinfo/JaeSuk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -483,11 +483,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>printer</t>
+          <t>cabinet</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -520,21 +520,6 @@
         <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>telephone</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
